--- a/biology/Zoologie/Echinometra_vanbrunti/Echinometra_vanbrunti.xlsx
+++ b/biology/Zoologie/Echinometra_vanbrunti/Echinometra_vanbrunti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinometra vanbrunti est une espèce d'oursins tropicaux de la famille des Echinometridae, que l'on trouve sur les côtes pacifiques de l'Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oursin régulier de taille moyenne, dont le test (coquille) mesure entre 5 et 8 cm de diamètre. Le test est généralement noir, et la couleur de ses radioles robustes et coniques est variable, allant du violacé au noir. Celles-ci sont de longueur homogène, ne dépassant pas le diamètre du test. La bouche située au centre de la face orale (inférieure), et l'anus à l'opposé, à l'apex (pôle supérieur). Le péristome (membrane charnue entourant la bouche) est large et nu. Contrairement aux autres espèces de son genre, cet oursin n'est pas significativement allongé et plutôt circulaire. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oursin est relativement courant à faible profondeur (notamment dans les trous d'eau de la zone intertidale) sur les côtes pacifiques de l'Amérique centrale[2], notamment à Panama mais aussi de la Basse-Californie aux Galapagos. Elle est cependant remplacée sur l'île de Pâques par une espèce proche, Echinometra insularis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oursin est relativement courant à faible profondeur (notamment dans les trous d'eau de la zone intertidale) sur les côtes pacifiques de l'Amérique centrale, notamment à Panama mais aussi de la Basse-Californie aux Galapagos. Elle est cependant remplacée sur l'île de Pâques par une espèce proche, Echinometra insularis.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Echinometra vanbrunti</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les oursins vivant à proximité de la surface, cet animal est souvent responsables de vives douleurs quand un baigneur marche dessus par inadvertance : ses piquants ont tendance à se casser dans la plaie, ce qui les rend presque impossibles à enlever entièrement. Heureusement, il n'est pas venimeux, et ne présente pas de grand danger si la plaie est correctement désinfectée : le corps dissoudra les morceaux de carbonate en quelques semaines.
 Cette espèce n'est pas consommée de manière significative, et n'est d'aucune valeur commerciale.
